--- a/medicine/Médecine vétérinaire/Syndrome_des_taches_blanches/Syndrome_des_taches_blanches.xlsx
+++ b/medicine/Médecine vétérinaire/Syndrome_des_taches_blanches/Syndrome_des_taches_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome des taches blanches est une infection virale qui touche des crevettes Pénaéides. Cette maladie hautement contagieuse et létale tue les crevettes très rapidement.
 Des épidémies de la maladie des taches blanches ont affecté des élevages aquacoles de crevettes dans le monde entier, éliminant en l'espace de quelques jours des populations entières.
 La maladie est provoquée par une famille de virus apparentés regroupés sous le nom de « virus des taches blanches » et la maladie est désignée sous le nom de « syndrome du virus des taches blanches ».
-La première épidémie due à ce virus signalée dans le monde s'est produite en 1992 à Taïwan[1] (Chen, 1995). Le virus s'est ensuite répandu dans le Sud-Est asiatique[réf. nécessaire].
+La première épidémie due à ce virus signalée dans le monde s'est produite en 1992 à Taïwan (Chen, 1995). Le virus s'est ensuite répandu dans le Sud-Est asiatique[réf. nécessaire].
 Le syndrome du virus des taches blanches n'affecte pas les êtres humains et la consommation éventuelle de crevettes infectées ne présente aucun risque pour la santé humaine.
-Le 31 octobre 2011, a été déposé le brevet d'un vaccin contre le virus causant la syndrome des taches blanches[2].
+Le 31 octobre 2011, a été déposé le brevet d'un vaccin contre le virus causant la syndrome des taches blanches.
 </t>
         </is>
       </c>
